--- a/trunk/other/i-v.xlsx
+++ b/trunk/other/i-v.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="14355" windowHeight="17940" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="14355" windowHeight="17940" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Ireset = 10 uA</t>
   </si>
@@ -25,6 +25,15 @@
   </si>
   <si>
     <t>Ireset = 50 uA</t>
+  </si>
+  <si>
+    <t>Vreset  = -2.5V</t>
+  </si>
+  <si>
+    <t>Vreset = -2.0V</t>
+  </si>
+  <si>
+    <t>Vreset = -1.5V</t>
   </si>
 </sst>
 </file>
@@ -377,11 +386,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="105923712"/>
-        <c:axId val="105923136"/>
+        <c:axId val="53002240"/>
+        <c:axId val="53002816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="105923712"/>
+        <c:axId val="53002240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -391,12 +400,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105923136"/>
+        <c:crossAx val="53002816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="105923136"/>
+        <c:axId val="53002816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -407,14 +416,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="105923712"/>
+        <c:crossAx val="53002240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2135,11 +2143,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="105929472"/>
-        <c:axId val="105928896"/>
+        <c:axId val="53004544"/>
+        <c:axId val="53005120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="105929472"/>
+        <c:axId val="53004544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2180,12 +2188,12 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="105928896"/>
+        <c:crossAx val="53005120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="105928896"/>
+        <c:axId val="53005120"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2236,7 +2244,7 @@
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="low"/>
-        <c:crossAx val="105929472"/>
+        <c:crossAx val="53004544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2253,6 +2261,1848 @@
           <c:h val="0.23109146735378822"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vreset  = -2.5V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="97"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$C$2:$C$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="97"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.999999993869804E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.9246389611420691E-4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.2493021500769036E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.9024791981196951E-4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.8245090656221305E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.9657596675931105E-4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.2850670255340966E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7483995534368628E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.3277173345453745E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.9999999950958247E-5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.4642013470219644E-5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.5164207903457304E-5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.032285510850281E-5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.9113982388292121E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.0731216647983596E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.453040301335687E-5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>9.9999999963218737E-6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.7363884816143382E-6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.4233500652350579E-6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.8150735267736865E-6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7221381093260493E-6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.9999999975479048E-7</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.3957374276638051E-7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.5954553514969827E-7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.9999999987739524E-8</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00E+00">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.2850670255340966E-4</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.7483995534368628E-4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.3277173345453745E-4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.9999999950958247E-5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.4642013470219644E-5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.5164207903457304E-5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.032285510850281E-5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.9113982388292121E-5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.0731216647983596E-5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.453040301335687E-5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>9.9999999963218737E-6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.7363884816143382E-6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.4233500652350579E-6</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.8150735267736865E-6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.7221381093260493E-6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>9.9999999975479048E-7</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.3957374276638051E-7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.5954553514969827E-7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>9.9999999987739524E-8</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="0.00E+00">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vreset = -2.0V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="97"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$D$2:$D$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="97"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0000165881885723E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.4714379515014931E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.5388974524431755E-4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.0717290499183665E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.9658036719401452E-4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.1386181972065567E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.525127528165908E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.074322526804992E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.4642972590716847E-5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.1062795395133797E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.4319345746614899E-5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.2599914644596361E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.4530555461221244E-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.079128305424569E-6</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.4779332173453364E-6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.1623038882886751E-6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.7221508853582327E-6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>8.639616460857317E-7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.8118965701106375E-7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.3123074660148169E-7</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00E+00">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>4.0717290499183665E-4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.9658036719401452E-4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.1386181972065567E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.525127528165908E-4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.074322526804992E-4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>7.4642972590716847E-5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.1062795395133797E-5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.4319345746614899E-5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.2599914644596361E-5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.4530555461221244E-5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.079128305424569E-6</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.4779332173453364E-6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.1623038882886751E-6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.7221508853582327E-6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.639616460857317E-7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.8118965701106375E-7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.3123074660148169E-7</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="0.00E+00">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Vreset = -1.5V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet3!$B$2:$B$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="97"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-2.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-2.4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-2.1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet3!$E$2:$E$98</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="97"/>
+                <c:pt idx="0" formatCode="0.00E+00">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.9999998691869358E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.7679775573104397E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4.5159245359342346E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.965759634519032E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.9131287050814396E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.2091575723876561E-4</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.4642012749335124E-5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4.4821224027264652E-5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.6040555921294257E-5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.4530402898775362E-5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.7046221102068309E-6</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.8193450416426441E-6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.7221380997234316E-6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.6948654973243979E-7</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.954314468462698E-7</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00E+00">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.0000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.9999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>8.0000000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.1999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.4E-3</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.6000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.2000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.8E-3</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.9999998691869358E-4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.7679775573104397E-4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.5159245359342346E-4</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.965759634519032E-4</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.9131287050814396E-4</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.2091575723876561E-4</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.4642012749335124E-5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.4821224027264652E-5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.6040555921294257E-5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.4530402898775362E-5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.7046221102068309E-6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.8193450416426441E-6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.7221380997234316E-6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.6948654973243979E-7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.954314468462698E-7</c:v>
+                </c:pt>
+                <c:pt idx="96" formatCode="0.00E+00">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="84842688"/>
+        <c:axId val="84842112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="84842688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84842112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="84842112"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="84842688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2306,20 +4156,55 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>695324</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57148</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>466724</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>23812</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>328612</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2646,7 +4531,7 @@
         <v>-0.9</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:C28" si="0">SQRT(1-B7^2)</f>
+        <f t="shared" ref="C7:C26" si="0">SQRT(1-B7^2)</f>
         <v>0.43588989435406728</v>
       </c>
     </row>
@@ -3011,8 +4896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:I92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B92" sqref="B6:B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3995,7 +5880,7 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="D69">
-        <f t="shared" ref="D69:D73" si="6">-B69/10000</f>
+        <f t="shared" ref="D69:D72" si="6">-B69/10000</f>
         <v>2.0000000000000002E-5</v>
       </c>
       <c r="E69">
@@ -4535,12 +6420,1441 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B1:H98"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E98"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1E-8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>-0.1</v>
+      </c>
+      <c r="C3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D3">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E15" si="0">-B3/500</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>-0.2</v>
+      </c>
+      <c r="C4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>-0.3</v>
+      </c>
+      <c r="C5">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D5">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>-0.4</v>
+      </c>
+      <c r="C6">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D6">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>-0.5</v>
+      </c>
+      <c r="C7">
+        <v>1E-3</v>
+      </c>
+      <c r="D7">
+        <v>1E-3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>-0.6</v>
+      </c>
+      <c r="C8">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D8">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>-0.7</v>
+      </c>
+      <c r="C9">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D9">
+        <v>1.4E-3</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>-0.8</v>
+      </c>
+      <c r="C10">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D10">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>-0.9</v>
+      </c>
+      <c r="C11">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D11">
+        <v>1.8E-3</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>-1</v>
+      </c>
+      <c r="C12">
+        <v>2E-3</v>
+      </c>
+      <c r="D12">
+        <v>2E-3</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C13">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="D13">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>-1.2</v>
+      </c>
+      <c r="C14">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="D14">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>-1.3</v>
+      </c>
+      <c r="C15">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="D15">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>-1.4</v>
+      </c>
+      <c r="C16">
+        <v>2.8E-3</v>
+      </c>
+      <c r="D16">
+        <v>2.8E-3</v>
+      </c>
+      <c r="E16">
+        <f>-B16/500</f>
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>-1.5</v>
+      </c>
+      <c r="C17">
+        <v>1E-3</v>
+      </c>
+      <c r="D17">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>-1.6</v>
+      </c>
+      <c r="C18">
+        <v>1E-3</v>
+      </c>
+      <c r="D18">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>-1.7</v>
+      </c>
+      <c r="C19">
+        <v>1E-3</v>
+      </c>
+      <c r="D19">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>-1.8</v>
+      </c>
+      <c r="C20">
+        <v>1E-3</v>
+      </c>
+      <c r="D20">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>-1.9</v>
+      </c>
+      <c r="C21">
+        <v>1E-3</v>
+      </c>
+      <c r="D21">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>-2</v>
+      </c>
+      <c r="C22">
+        <v>1E-3</v>
+      </c>
+      <c r="D22">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>-2.1</v>
+      </c>
+      <c r="C23">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="C24">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="C25">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>-2.4</v>
+      </c>
+      <c r="C26">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>-2.5</v>
+      </c>
+      <c r="C27">
+        <f>10^(-8+3.16227766*SQRT(-B27))</f>
+        <v>9.999999993869804E-4</v>
+      </c>
+      <c r="H27">
+        <f xml:space="preserve"> LOG(C27)</f>
+        <v>-3.000000000266231</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>-2.4</v>
+      </c>
+      <c r="C28">
+        <f t="shared" ref="C28:C51" si="1">10^(-8+3.16227766*SQRT(-B28))</f>
+        <v>7.9246389611420691E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>6.2493021500769036E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>4.9024791981196951E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>-2.1</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>3.8245090656221305E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>-2</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>2.9657596675931105E-4</v>
+      </c>
+      <c r="D32">
+        <f>10^(-8+3.535539*SQRT(-B32))</f>
+        <v>1.0000165881885723E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>-1.9</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>2.2850670255340966E-4</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:D51" si="2">10^(-8+3.535539*SQRT(-B33))</f>
+        <v>7.4714379515014931E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>-1.8</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>1.7483995534368628E-4</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="2"/>
+        <v>5.5388974524431755E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>-1.7</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>1.3277173345453745E-4</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="2"/>
+        <v>4.0717290499183665E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>-1.6</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>9.9999999950958247E-5</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="2"/>
+        <v>2.9658036719401452E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>-1.5</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>7.4642013470219644E-5</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="2"/>
+        <v>2.1386181972065567E-4</v>
+      </c>
+      <c r="E37">
+        <f>10^(-8+4.0824829*SQRT(-B37))</f>
+        <v>9.9999998691869358E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>-1.4</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>5.5164207903457304E-5</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="2"/>
+        <v>1.525127528165908E-4</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38:E51" si="3">10^(-8+4.0824829*SQRT(-B38))</f>
+        <v>6.7679775573104397E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>-1.3</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>4.032285510850281E-5</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="2"/>
+        <v>1.074322526804992E-4</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>4.5159245359342346E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>-1.2</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>2.9113982388292121E-5</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="2"/>
+        <v>7.4642972590716847E-5</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>2.965759634519032E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>2.0731216647983596E-5</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="2"/>
+        <v>5.1062795395133797E-5</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>1.9131287050814396E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>-1</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>1.453040301335687E-5</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="2"/>
+        <v>3.4319345746614899E-5</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>1.2091575723876561E-4</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>-0.9</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>9.9999999963218737E-6</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="2"/>
+        <v>2.2599914644596361E-5</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="3"/>
+        <v>7.4642012749335124E-5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>-0.8</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>6.7363884816143382E-6</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="2"/>
+        <v>1.4530555461221244E-5</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>4.4821224027264652E-5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>-0.7</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>4.4233500652350579E-6</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="2"/>
+        <v>9.079128305424569E-6</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>2.6040555921294257E-5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>-0.6</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>2.8150735267736865E-6</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="2"/>
+        <v>5.4779332173453364E-6</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>1.4530402898775362E-5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>-0.5</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>1.7221381093260493E-6</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="2"/>
+        <v>3.1623038882886751E-6</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="3"/>
+        <v>7.7046221102068309E-6</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>-0.4</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>9.9999999975479048E-7</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>1.7221508853582327E-6</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="3"/>
+        <v>3.8193450416426441E-6</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>-0.3</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>5.3957374276638051E-7</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>8.639616460857317E-7</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="3"/>
+        <v>1.7221380997234316E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>-0.2</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>2.5954553514969827E-7</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>3.8118965701106375E-7</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="3"/>
+        <v>6.6948654973243979E-7</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>-0.1</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>9.9999999987739524E-8</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>1.3123074660148169E-7</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="3"/>
+        <v>1.954314468462698E-7</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="D52" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1E-8</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>0.1</v>
+      </c>
+      <c r="C53">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="D53">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="E53">
+        <f>B53/500</f>
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>0.2</v>
+      </c>
+      <c r="C54">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="D54">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ref="E54:E67" si="4">B54/500</f>
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>0.3</v>
+      </c>
+      <c r="C55">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="D55">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="4"/>
+        <v>5.9999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>0.4</v>
+      </c>
+      <c r="C56">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="D56">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000004E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>0.5</v>
+      </c>
+      <c r="C57">
+        <v>1E-3</v>
+      </c>
+      <c r="D57">
+        <v>1E-3</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="4"/>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>0.6</v>
+      </c>
+      <c r="C58">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="D58">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="4"/>
+        <v>1.1999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>0.7</v>
+      </c>
+      <c r="C59">
+        <v>1.4E-3</v>
+      </c>
+      <c r="D59">
+        <v>1.4E-3</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="4"/>
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>0.8</v>
+      </c>
+      <c r="C60">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="D60">
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="4"/>
+        <v>1.6000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>0.9</v>
+      </c>
+      <c r="C61">
+        <v>1.8E-3</v>
+      </c>
+      <c r="D61">
+        <v>1.8E-3</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="4"/>
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>2E-3</v>
+      </c>
+      <c r="D62">
+        <v>2E-3</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="4"/>
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C63">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="D63">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="4"/>
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>1.2</v>
+      </c>
+      <c r="C64">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="D64">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="4"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>1.3</v>
+      </c>
+      <c r="C65">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="D65">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="4"/>
+        <v>2.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>1.4</v>
+      </c>
+      <c r="C66">
+        <v>2.8E-3</v>
+      </c>
+      <c r="D66">
+        <v>2.8E-3</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="4"/>
+        <v>2.8E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>1.5</v>
+      </c>
+      <c r="C67">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D67">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E67">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>1.6</v>
+      </c>
+      <c r="C68">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D68">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E68">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>1.7</v>
+      </c>
+      <c r="C69">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D69">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E69">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>1.8</v>
+      </c>
+      <c r="C70">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D70">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E70">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>1.9</v>
+      </c>
+      <c r="C71">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D71">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E71">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D72">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E72">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>2.1</v>
+      </c>
+      <c r="C73">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D73">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E73">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C74">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D74">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E74">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C75">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D75">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E75">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>2.4</v>
+      </c>
+      <c r="C76">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D76">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E76">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>2.5</v>
+      </c>
+      <c r="C77">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D77">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E77">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D78">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E78">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>1.9</v>
+      </c>
+      <c r="C79">
+        <f>10^(-8+3.16227766*SQRT(B79))</f>
+        <v>2.2850670255340966E-4</v>
+      </c>
+      <c r="D79">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E79">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>1.8</v>
+      </c>
+      <c r="C80">
+        <f t="shared" ref="C80:C97" si="5">10^(-8+3.16227766*SQRT(B80))</f>
+        <v>1.7483995534368628E-4</v>
+      </c>
+      <c r="D80">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E80">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>1.7</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="5"/>
+        <v>1.3277173345453745E-4</v>
+      </c>
+      <c r="D81">
+        <f>10^(-8+3.535539*SQRT(B81))</f>
+        <v>4.0717290499183665E-4</v>
+      </c>
+      <c r="E81">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>1.6</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="5"/>
+        <v>9.9999999950958247E-5</v>
+      </c>
+      <c r="D82">
+        <f t="shared" ref="D82:D97" si="6">10^(-8+3.535539*SQRT(B82))</f>
+        <v>2.9658036719401452E-4</v>
+      </c>
+      <c r="E82">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>1.5</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="5"/>
+        <v>7.4642013470219644E-5</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="6"/>
+        <v>2.1386181972065567E-4</v>
+      </c>
+      <c r="E83">
+        <f>10^(-8+4.0824829*SQRT(B83))</f>
+        <v>9.9999998691869358E-4</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>1.4</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="5"/>
+        <v>5.5164207903457304E-5</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="6"/>
+        <v>1.525127528165908E-4</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ref="E84:E97" si="7">10^(-8+4.0824829*SQRT(B84))</f>
+        <v>6.7679775573104397E-4</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>1.3</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="5"/>
+        <v>4.032285510850281E-5</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="6"/>
+        <v>1.074322526804992E-4</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="7"/>
+        <v>4.5159245359342346E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>1.2</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="5"/>
+        <v>2.9113982388292121E-5</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="6"/>
+        <v>7.4642972590716847E-5</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="7"/>
+        <v>2.965759634519032E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="5"/>
+        <v>2.0731216647983596E-5</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="6"/>
+        <v>5.1062795395133797E-5</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="7"/>
+        <v>1.9131287050814396E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="5"/>
+        <v>1.453040301335687E-5</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="6"/>
+        <v>3.4319345746614899E-5</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="7"/>
+        <v>1.2091575723876561E-4</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>0.9</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="5"/>
+        <v>9.9999999963218737E-6</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="6"/>
+        <v>2.2599914644596361E-5</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="7"/>
+        <v>7.4642012749335124E-5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>0.8</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="5"/>
+        <v>6.7363884816143382E-6</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="6"/>
+        <v>1.4530555461221244E-5</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="7"/>
+        <v>4.4821224027264652E-5</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>0.7</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="5"/>
+        <v>4.4233500652350579E-6</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="6"/>
+        <v>9.079128305424569E-6</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="7"/>
+        <v>2.6040555921294257E-5</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>0.6</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="5"/>
+        <v>2.8150735267736865E-6</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="6"/>
+        <v>5.4779332173453364E-6</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="7"/>
+        <v>1.4530402898775362E-5</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>0.5</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="5"/>
+        <v>1.7221381093260493E-6</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="6"/>
+        <v>3.1623038882886751E-6</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="7"/>
+        <v>7.7046221102068309E-6</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>0.4</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="5"/>
+        <v>9.9999999975479048E-7</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="6"/>
+        <v>1.7221508853582327E-6</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="7"/>
+        <v>3.8193450416426441E-6</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>0.3</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="5"/>
+        <v>5.3957374276638051E-7</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="6"/>
+        <v>8.639616460857317E-7</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="7"/>
+        <v>1.7221380997234316E-6</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>0.2</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="5"/>
+        <v>2.5954553514969827E-7</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="6"/>
+        <v>3.8118965701106375E-7</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="7"/>
+        <v>6.6948654973243979E-7</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>0.1</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="5"/>
+        <v>9.9999999987739524E-8</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="6"/>
+        <v>1.3123074660148169E-7</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="7"/>
+        <v>1.954314468462698E-7</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>0</v>
+      </c>
+      <c r="C98" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="D98" s="1">
+        <v>1E-8</v>
+      </c>
+      <c r="E98" s="1">
+        <v>1E-8</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/other/i-v.xlsx
+++ b/trunk/other/i-v.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -18,22 +19,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Ireset = 10 uA</t>
+    <t>Iset = 10 uA</t>
   </si>
   <si>
-    <t>Ireset = 20 uA</t>
+    <t>Iset = 20 uA</t>
   </si>
   <si>
-    <t>Ireset = 50 uA</t>
+    <t>Iset = 50 uA</t>
   </si>
   <si>
-    <t>Vreset  = -2.5V</t>
+    <t>Vreset = -2.5 V</t>
   </si>
   <si>
-    <t>Vreset = -2.0V</t>
+    <t>Vreset = -2.0 V</t>
   </si>
   <si>
-    <t>Vreset = -1.5V</t>
+    <t>Vreset = -1.5 V</t>
   </si>
 </sst>
 </file>
@@ -386,11 +387,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="53002240"/>
-        <c:axId val="53002816"/>
+        <c:axId val="52732480"/>
+        <c:axId val="52733056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="53002240"/>
+        <c:axId val="52732480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -400,12 +401,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53002816"/>
+        <c:crossAx val="52733056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="53002816"/>
+        <c:axId val="52733056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -416,7 +417,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="53002240"/>
+        <c:crossAx val="52732480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -458,10 +459,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="2.2157942692396616E-2"/>
-          <c:y val="8.7842417756032899E-3"/>
-          <c:w val="0.977842121813013"/>
-          <c:h val="0.87777421026255209"/>
+          <c:x val="9.3099584779376784E-2"/>
+          <c:y val="1.6985132325214463E-2"/>
+          <c:w val="0.86206627900707145"/>
+          <c:h val="0.8013411567476949"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -476,7 +477,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ireset = 10 uA</c:v>
+                  <c:v>Iset = 10 uA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1032,7 +1033,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ireset = 20 uA</c:v>
+                  <c:v>Iset = 20 uA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1588,7 +1589,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Ireset = 50 uA</c:v>
+                  <c:v>Iset = 50 uA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2143,15 +2144,17 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="53004544"/>
-        <c:axId val="53005120"/>
+        <c:axId val="52734784"/>
+        <c:axId val="52735360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="53004544"/>
+        <c:axId val="52734784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2.5"/>
+          <c:min val="-2.5"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2160,17 +2163,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400" b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1400" b="0"/>
                   <a:t>Applied</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Voltage</a:t>
+                  <a:rPr lang="en-US" sz="1400" b="0" baseline="0"/>
+                  <a:t> Voltage (V)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1400" b="0"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2178,8 +2181,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.32888167104111993"/>
-              <c:y val="0.92960629921259841"/>
+              <c:x val="0.39223016538279465"/>
+              <c:y val="0.9253600396676398"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2187,17 +2190,35 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
-        <c:crossAx val="53005120"/>
-        <c:crosses val="autoZero"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="52735360"/>
+        <c:crossesAt val="1.0000000000000005E-9"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="53005120"/>
+        <c:axId val="52735360"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
-          <c:max val="1.0000000000000002E-2"/>
+          <c:max val="1.0000000000000002E-3"/>
           <c:min val="1.0000000000000005E-9"/>
         </c:scaling>
         <c:delete val="1"/>
@@ -2216,17 +2237,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1400"/>
                   <a:t>Current</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
                   <a:t> (log)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2241,11 +2262,11 @@
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="in"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="low"/>
-        <c:crossAx val="53004544"/>
-        <c:crosses val="autoZero"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="52734784"/>
+        <c:crossesAt val="-2.5"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
@@ -2255,13 +2276,23 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.6677787498784874"/>
-          <c:y val="0.60590551181102359"/>
-          <c:w val="0.28086453740959644"/>
+          <c:x val="0.63157975996015248"/>
+          <c:y val="0.56344264558816204"/>
+          <c:w val="0.35627929447885553"/>
           <c:h val="0.23109146735378822"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -2289,9 +2320,19 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.7828213354541301E-2"/>
+          <c:y val="2.9004473032420252E-3"/>
+          <c:w val="0.86206627900707145"/>
+          <c:h val="0.8013411567476949"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
@@ -2304,7 +2345,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Vreset  = -2.5V</c:v>
+                  <c:v>Vreset = -2.5 V</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2920,7 +2961,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Vreset = -2.0V</c:v>
+                  <c:v>Vreset = -2.0 V</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3509,7 +3550,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Vreset = -1.5V</c:v>
+                  <c:v>Vreset = -1.5 V</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4064,46 +4105,155 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="84842688"/>
-        <c:axId val="84842112"/>
+        <c:axId val="52737664"/>
+        <c:axId val="52738240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84842688"/>
+        <c:axId val="52737664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2.5"/>
+          <c:min val="-2.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0"/>
+                  <a:t>Applied</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" b="0" baseline="0"/>
+                  <a:t> Voltage (V)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400" b="0"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39223016538279465"/>
+              <c:y val="0.9253600396676398"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84842112"/>
-        <c:crosses val="autoZero"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="52738240"/>
+        <c:crossesAt val="1.0000000000000005E-8"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84842112"/>
+        <c:axId val="52738240"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000002E-2"/>
+          <c:min val="1.0000000000000005E-8"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>Current</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
+                  <a:t> (log)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="7.1244203282879769E-3"/>
+              <c:y val="0.33645100187719251"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84842688"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="52737664"/>
+        <c:crossesAt val="-2.5"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.59112461502604896"/>
+          <c:y val="0.53057890650992567"/>
+          <c:w val="0.40347685696674768"/>
+          <c:h val="0.26395549147905806"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -4156,16 +4306,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>57148</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4191,16 +4341,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>147637</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>328612</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4897,7 +5047,7 @@
   <dimension ref="B5:I92"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B92" sqref="B6:B92"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6422,8 +6572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E98"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7170,7 +7320,7 @@
         <v>4.0000000000000002E-4</v>
       </c>
       <c r="E54">
-        <f t="shared" ref="E54:E67" si="4">B54/500</f>
+        <f t="shared" ref="E54:E66" si="4">B54/500</f>
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
@@ -7857,4 +8007,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>